--- a/ValueSet-stroke-risk-factor-snomed-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-snomed-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/stroke-risk-factor-snomed-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/stroke-risk-factor-snomed-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ValueSet-stroke-risk-factor-snomed-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-snomed-vs.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSet #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://tecnomod-um.org/ValueSet/stroke-risk-factor-snomed-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/stroke-risk-factor-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -36,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>StrokeRiskFactorSNOMEDVS</t>
+    <t>StrokeRiskFactorValueSet</t>
   </si>
   <si>
     <t>Title</t>
@@ -84,7 +85,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines the SNOMED CT codes for conditions or risk factors relevant to stroke.</t>
+    <t>Defines the SNOMED CT codes for conditions or risk factors relevant to stroke, including an option for unknown status.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -178,6 +179,12 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>ValueSet URL</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-problems-uv-ips</t>
   </si>
 </sst>
 </file>
@@ -573,4 +580,31 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>